--- a/ML_CS7641/Optimization/TSP_prob_size=22/final/result.xlsx
+++ b/ML_CS7641/Optimization/TSP_prob_size=22/final/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,53 +448,40 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RHC</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06911540031433105</v>
+        <v>7.491178274154663</v>
       </c>
       <c r="C2" t="n">
-        <v>147.1156799478348</v>
+        <v>148.5795943807167</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.725516080856323</v>
+        <v>0.07375931739807129</v>
       </c>
       <c r="C3" t="n">
-        <v>148.1587905538299</v>
+        <v>145.3494260730226</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.1719329357147217</v>
-      </c>
-      <c r="C4" t="n">
-        <v>147.4025968390912</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
           <t>MIMIC</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>19.71382212638855</v>
-      </c>
-      <c r="C5" t="n">
-        <v>139.2979813526997</v>
+      <c r="B4" t="n">
+        <v>87.78799057006836</v>
+      </c>
+      <c r="C4" t="n">
+        <v>137.1883009411543</v>
       </c>
     </row>
   </sheetData>

--- a/ML_CS7641/Optimization/TSP_prob_size=22/final/result.xlsx
+++ b/ML_CS7641/Optimization/TSP_prob_size=22/final/result.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.491178274154663</v>
+        <v>7.165581703186035</v>
       </c>
       <c r="C2" t="n">
         <v>148.5795943807167</v>
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07375931739807129</v>
+        <v>0.07134485244750977</v>
       </c>
       <c r="C3" t="n">
         <v>145.3494260730226</v>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87.78799057006836</v>
+        <v>85.28753042221069</v>
       </c>
       <c r="C4" t="n">
         <v>137.1883009411543</v>
